--- a/RQ3dataset.xlsx
+++ b/RQ3dataset.xlsx
@@ -153,21 +153,6 @@
     <t>totalpostMETBI</t>
   </si>
   <si>
-    <t>dinner</t>
-  </si>
-  <si>
-    <t>fooddrive</t>
-  </si>
-  <si>
-    <t>independent</t>
-  </si>
-  <si>
-    <t>slope</t>
-  </si>
-  <si>
-    <t>expression</t>
-  </si>
-  <si>
     <t>AF1001</t>
   </si>
   <si>
@@ -253,6 +238,21 @@
   </si>
   <si>
     <t>SRN</t>
+  </si>
+  <si>
+    <t>Proportions</t>
+  </si>
+  <si>
+    <t>Percentages</t>
+  </si>
+  <si>
+    <t>Xvalues</t>
+  </si>
+  <si>
+    <t>SlopeInt</t>
+  </si>
+  <si>
+    <t>ExpEq</t>
   </si>
 </sst>
 </file>
@@ -638,24 +638,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AT29" sqref="AT29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="22" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="22" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="44" width="10.83203125" style="1"/>
+    <col min="24" max="32" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="44" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="10.83203125" style="1"/>
-    <col min="48" max="48" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.83203125" style="1"/>
+    <col min="46" max="46" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -790,24 +796,24 @@
         <v>43</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -961,7 +967,7 @@
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1115,7 +1121,7 @@
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1269,7 +1275,7 @@
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1423,7 +1429,7 @@
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1559,6 +1565,9 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
       <c r="AU6" s="1">
         <v>14</v>
       </c>
@@ -1574,7 +1583,7 @@
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1728,7 +1737,7 @@
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -1882,7 +1891,7 @@
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -2036,7 +2045,7 @@
     </row>
     <row r="10" spans="1:50">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -2190,7 +2199,7 @@
     </row>
     <row r="11" spans="1:50">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2344,7 +2353,7 @@
     </row>
     <row r="12" spans="1:50">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -2498,7 +2507,7 @@
     </row>
     <row r="13" spans="1:50">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2652,7 +2661,7 @@
     </row>
     <row r="14" spans="1:50">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -2806,7 +2815,7 @@
     </row>
     <row r="15" spans="1:50">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -2960,7 +2969,7 @@
     </row>
     <row r="16" spans="1:50">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -3114,7 +3123,7 @@
     </row>
     <row r="17" spans="1:50">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -3268,7 +3277,7 @@
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -3422,7 +3431,7 @@
     </row>
     <row r="19" spans="1:50">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
@@ -3576,7 +3585,7 @@
     </row>
     <row r="20" spans="1:50">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -3712,6 +3721,9 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
+      <c r="AT20" s="1">
+        <v>0</v>
+      </c>
       <c r="AU20" s="1">
         <v>6</v>
       </c>
@@ -3727,7 +3739,7 @@
     </row>
     <row r="21" spans="1:50">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
@@ -3881,7 +3893,7 @@
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1">
         <v>4</v>
@@ -4035,7 +4047,7 @@
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -4171,6 +4183,9 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
+      <c r="AT23" s="1">
+        <v>0</v>
+      </c>
       <c r="AU23" s="1">
         <v>9</v>
       </c>
@@ -4186,7 +4201,7 @@
     </row>
     <row r="24" spans="1:50">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
@@ -4322,6 +4337,9 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
       <c r="AU24" s="1">
         <v>13</v>
       </c>
@@ -4337,7 +4355,7 @@
     </row>
     <row r="25" spans="1:50">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
@@ -4491,7 +4509,7 @@
     </row>
     <row r="26" spans="1:50">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -4645,7 +4663,7 @@
     </row>
     <row r="27" spans="1:50">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -4781,6 +4799,9 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
+      <c r="AT27" s="1">
+        <v>0</v>
+      </c>
       <c r="AU27" s="1">
         <v>11</v>
       </c>
@@ -4796,7 +4817,7 @@
     </row>
     <row r="28" spans="1:50">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1">
         <v>4</v>
@@ -4932,6 +4953,9 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+      <c r="AT28" s="1">
+        <v>0</v>
+      </c>
       <c r="AU28" s="1">
         <v>11</v>
       </c>
@@ -4947,7 +4971,7 @@
     </row>
     <row r="29" spans="1:50">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
